--- a/INTLINE/data/924/NBS/Gross Domestic Product by Expenditure Approach.xlsx
+++ b/INTLINE/data/924/NBS/Gross Domestic Product by Expenditure Approach.xlsx
@@ -1,37 +1,303 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NBS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NBS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product by Expenditure Approach(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Final Consumption Expenditure(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Household Consumption Expenditure(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Urban Household Consumption Expenditure(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Rural Household Consumption Expenditure(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Government Consumption Expenditure(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Gross Capital Formation(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Gross Fixed Capital Formation(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Changes in Inventories(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Net Exports of Goods and Services(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Final Consumption Rate(%)</t>
+  </si>
+  <si>
+    <t>Capital Formation Rate(%)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +312,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +331,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,2800 +628,2470 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Indicators</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>1958</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>1956</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>1955</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>1953</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>1952</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>1951</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>1949</t>
-        </is>
+    <row r="1" spans="1:74">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Gross Domestic Product by Expenditure Approach(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+    <row r="2" spans="1:74">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
         <v>1025628.4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>990708.4</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>915774.3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>828982.8</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>745980.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>692093.7</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>646548</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>596344.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>539039.9</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>484109.3</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>408505.4</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>347650.3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>318067.6</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>270499.4</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>219597.5</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>187657.5</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>161355.6</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>137146.7</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>121326.7</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>110388.4</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>99799</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>90095.10000000001</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>84790.8</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>79415.8</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>71541.5</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>61050.4</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>48410.3</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>35576</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>27140.3</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>21997.2</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>18969.3</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>17250.5</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>15210.5</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>12198</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>10390.3</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>9108.1</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>7290.1</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>6034.2</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>5386.3</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>4921.6</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>4540.5</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>4047.3</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>3605.6</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>3166.5</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>2968.8</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>2949.9</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>2739.8</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>2672</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>2456.7</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>2395.1</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>2208.3</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>1861.2</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>1713</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>1711.6</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>1830.7</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>1634.3</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>1446.8</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>1298.3</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>1181.7</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>1279.3</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>1506.9</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>1446.4</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>1286.1</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>1099</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>1030.1</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>931.8</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>875</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>831.5</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>690.2</v>
       </c>
-      <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Final Consumption Expenditure(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+    <row r="3" spans="1:74">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
         <v>560811.1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>552631.7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>506134.9</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>456518.2</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>410806.4</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>371920.7</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>338031.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>306663.7</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>275443.9</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>244747.3</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>201581.4</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>174538.6</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>158899.2</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>137737.1</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>115364.3</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>101872.5</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>89394.39999999999</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>79735</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>74227.5</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>68661.10000000001</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>63748.9</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>56667.3</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>51501.8</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>47548.7</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>43122.3</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>36228.7</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>28296.8</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>20814.9</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>16239.3</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>13625.6</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>12012.4</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>11043.7</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>9429.4</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>7643.5</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>6730.8</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>5920.8</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>4786.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>4061.2</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>3576.8</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>3278.2</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>2967.7</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>2579</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>2233.6</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>2055.3</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>1967.2</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>1884.2</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>1807.7</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>1748.9</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>1640.7</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>1553</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>1456.7</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>1358</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>1270.7</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>1277.2</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>1249.4</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>1155.9</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>1076</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>1013.2</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>986.2</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>992.9</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>924.6</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>817</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>850</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>815.4</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>771.3</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>721.9</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>653.9</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>644.4</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>546.3</v>
       </c>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Household Consumption Expenditure(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+    <row r="4" spans="1:74">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
         <v>387185.8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>387188.1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>354124.4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>320689.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>288668.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>260202.4</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>236238.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>212477.3</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>190584.8</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>170390.8</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>141465.5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>123121.9</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>112654.7</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>98231.3</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>82842.39999999999</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>74153.7</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>65724.8</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>58689.9</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>54667</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>50464.7</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>46863.3</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>41845.8</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>38768.5</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>36585.8</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>33644.1</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>28065.6</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>21443.2</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>15694.9</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>12312.2</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>10544.5</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>9435</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>8778</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>7532.1</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>6047.6</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>5293.5</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>4627.4</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>3689.5</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>3220.9</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>2867.1</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>2627.5</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>2336.9</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>2014</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>1759.1</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>1647.8</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>1588.5</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>1528.5</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>1467</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>1432.5</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>1334.2</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>1262</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>1206.8</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>1127.7</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>1076.6</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>1081.5</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>1021.1</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>951.5</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>889.6</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>844.2</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>838.7</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>816.7</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>741.7</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>691.2</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>724</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>686.6</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>646.8</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>602.6</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>550</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>529.2</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>453</v>
       </c>
-      <c r="BT4" t="inlineStr"/>
-      <c r="BU4" t="inlineStr"/>
-      <c r="BV4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Urban Household Consumption Expenditure(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+    <row r="5" spans="1:74">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
         <v>304086.3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>305130.7</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>277365.3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>252083.3</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>226960.2</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>203779.6</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>184738.8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>165889.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>148273.2</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>131555.2</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>108938.4</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>93197.7</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>84413.89999999999</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>72642.8</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>60202.8</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>53241.7</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>46492.2</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>40914.9</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>37650.3</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>34167.2</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>31251.4</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>27035.3</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>23893.7</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>21624.9</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>19489.1</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>16527.9</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>12270.9</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>8694.1</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>6365.6</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>4971</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>4194.2</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>3913.1</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>3380.5</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>2576.1</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>2180.5</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>1840.7</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>1438.4</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>1196.5</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>1049.7</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>1017.2</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>922</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>759.3</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>666.7</v>
       </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="inlineStr"/>
-      <c r="BV5" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Rural Household Consumption Expenditure(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+    <row r="6" spans="1:74">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
         <v>83099.5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>82057.39999999999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>76759.10000000001</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>68606.2</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>61708</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>56422.9</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>51499.7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>46587.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>42311.6</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>38835.6</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>32527.1</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>29924.2</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>28240.7</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>25588.5</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>22639.6</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>20912</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>19232.6</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>17775</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>17016.7</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>16297.5</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>15611.8</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>14810.6</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>14874.8</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>14961</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>14155</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>11537.7</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>9172.299999999999</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>7000.7</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>5946.7</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>5573.5</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>5240.9</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>4864.9</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>4151.6</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>3471.5</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>3113</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>2786.7</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>2251.2</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>2024.4</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>1817.4</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>1610.4</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>1414.9</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>1254.6</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>1092.4</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr"/>
-      <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="inlineStr"/>
-      <c r="BV6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Government Consumption Expenditure(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+    <row r="7" spans="1:74">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
         <v>173625.4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>165443.6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>152010.6</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>135828.7</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>122138.3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>111718.2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>101792.7</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>94186.39999999999</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>84859.10000000001</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>74356.5</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>60115.9</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>51416.7</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>46244.5</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>39505.8</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>32521.9</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>27718.8</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>23669.7</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>21045.1</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>19560.5</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>18196.5</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>16885.6</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>14821.5</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>12733.3</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>10962.9</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>9478.1</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>8163.2</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>6853.6</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>5120.1</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>3927.1</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>3081.1</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>2577.4</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>2265.7</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>1897.2</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>1595.9</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>1437.3</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>1293.3</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>1097.1</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>840.3</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>709.7</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>650.7</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>630.8</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>565</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>474.5</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>407.5</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>378.7</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>355.7</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>340.7</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>316.4</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>306.5</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>291</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>249.9</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>230.3</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>194.1</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>195.7</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>228.3</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>204.4</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>186.4</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>169</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>147.5</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>176.2</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>182.9</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>125.8</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>126</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>128.8</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>124.5</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>119.3</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>103.9</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>115.2</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>93.3</v>
       </c>
-      <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr"/>
-      <c r="BV7" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Gross Capital Formation(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+    <row r="8" spans="1:74">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
         <v>439550.3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>426678.7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>402585.2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>357886.1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>318198.5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>297826.5</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>294906.1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>275128.7</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>248960</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>227673.5</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>191866.9</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>158074.5</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>134941.6</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>109339.3</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>87578.60000000001</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>75576</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>67725.60000000001</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>54446.8</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>44005</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>39402.5</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>33667.1</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>30891.2</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>29659.7</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>28317.1</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>26960.1</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>23823</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>19479.4</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>15440.5</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>10625.4</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>7754</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>6446.6</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>6392.4</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>5932.2</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>4543.7</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>3914.6</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>3554.4</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>2502.2</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>1922.2</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>1718.4</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>1626.3</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>1587.5</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>1488.3</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>1383.3</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>1101.1</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>992.8</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>1064.9</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>939</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>908.3</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>797.6</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>826.4</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>749.3</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>490.7</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>434.9</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>428.1</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>575.2</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>469.9</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>357.9</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>271.7</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>182.9</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>281</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>581.9</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>621.2</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>429.6</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>278.1</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>254.8</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>218.9</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>223.9</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>195.6</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>151.8</v>
       </c>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Gross Fixed Capital Formation(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+    <row r="9" spans="1:74">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
         <v>430624.9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>422451.3</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>393847.9</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>348300.1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>310144.8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>289970.2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>282241.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>263979.9</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>238320.7</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>214017.2</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>181041.1</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>152691.1</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>124700.7</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>102344.6</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>84978.60000000001</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>73852</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>63974.9</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>52574.5</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>42672.1</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>37087.6</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>32668.7</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>29467</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>28014.5</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>24714.1</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>22723.3</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>19837.9</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>16751</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>13232</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>8252.799999999999</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>5656.3</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>4527.4</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>4399.1</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>4713.9</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>3720.4</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>3212.4</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>2768.9</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>2134.1</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>1696.5</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>1517.4</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>1345.4</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>1310.2</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>1162.5</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>1079.3</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>914.1</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>867.8</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>882.9</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>751</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>669.3</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>628.6</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>610.4</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>550.3</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>411.7</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>302.9</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>326.1</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>412.2</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>357.9</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>297.9</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>221.7</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>179.9</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>234</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>479.9</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>435.2</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>330.6</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>185.1</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>216.8</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>142.9</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>137.9</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>112.6</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>78.8</v>
       </c>
-      <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Changes in Inventories(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+    <row r="10" spans="1:74">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
         <v>8925.4</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4227.4</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>8737.299999999999</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>9586</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>8053.7</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>7856.3</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>12664.4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>11148.8</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>10639.3</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>13656.3</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>10825.8</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>5383.4</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>10240.9</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>6994.6</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>2600</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>1724</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>3750.7</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>1872.3</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>1332.9</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>2314.9</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>998.4</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>1424.2</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>1645.2</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>3603</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>4236.8</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>3985.1</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>2728.4</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>2208.5</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>2372.6</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>2097.7</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>1919.2</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>1993.3</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>1218.3</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>823.3</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>702.2</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>785.5</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>368.1</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>225.7</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>201</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>280.9</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>277.3</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>325.8</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>304</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>187</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>125</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>182</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>188</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>239</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>169</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>216</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>199</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>79</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>132</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>102</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>163</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>112</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>60</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>50</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>3</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>47</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>102</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>186</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>99</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>93</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>38</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>76</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>86</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>83</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>73</v>
       </c>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Net Exports of Goods and Services(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
+    <row r="11" spans="1:74">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
         <v>25266.9</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>11397.9</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>7054.2</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>14578.4</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>16975.6</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>22346.5</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>13610.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>14552.1</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>14636</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>11688.5</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>15057.1</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>15037.1</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>24226.8</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>23423.1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>16654.6</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>10209.1</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>4235.6</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>2964.9</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>3094.2</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>2324.7</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>2383</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>2536.6</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>3629.3</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>3550</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>1459.1</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>998.6</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>634.1</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>-679.5</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>275.6</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>617.6</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>510.3</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>-185.5</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>-151.2</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>10.8</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>-255.2</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>-367.1</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>1.3</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>50.8</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>91.09999999999999</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>17.1</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>-14.7</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>-20</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>-11.4</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>10.1</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>8.800000000000001</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>0.7</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>-6.9</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>14.8</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>18.4</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>15.6</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>2.3</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>12.4</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>7.4</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>6.3</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>6.1</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>8.5</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>12.9</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>13.5</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>12.6</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>5.4</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>0.4</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>8.199999999999999</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM11">
         <v>6.5</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN11">
         <v>5.5</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO11">
         <v>4</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP11">
         <v>-8.9</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ11">
         <v>-2.7</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR11">
         <v>-8.4</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS11">
         <v>-7.9</v>
       </c>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Final Consumption Rate(%)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+    <row r="12" spans="1:74">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
         <v>54.7</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>55.8</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>55.3</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>55.1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>55.1</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>53.7</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>52.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>51.4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>51.1</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>50.6</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>49.3</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>50.2</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>50</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>50.9</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>52.5</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>54.3</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>55.4</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>58.1</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>61.2</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>62.2</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>63.9</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>62.9</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>60.7</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>59.9</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>60.3</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>59.3</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>58.5</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>58.5</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>59.8</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>61.9</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>63.3</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>64</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>62</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>62.7</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>64.8</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>65</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12">
         <v>65.7</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12">
         <v>67.3</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12">
         <v>66.40000000000001</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12">
         <v>66.59999999999999</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12">
         <v>65.40000000000001</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12">
         <v>63.7</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12">
         <v>61.9</v>
       </c>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr"/>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr"/>
-      <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="inlineStr"/>
-      <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr"/>
-      <c r="BV12" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Capital Formation Rate(%)</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
+    <row r="13" spans="1:74">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
         <v>42.9</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>43.1</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>44</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>43.2</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>42.7</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>43</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>45.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>46.1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>46.2</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>47</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>47</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>45.5</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>42.4</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>40.4</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>39.9</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>40.3</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>42</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>39.7</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>36.3</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>35.7</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>33.7</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>34.3</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>35</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>35.7</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>37.7</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>39</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>40.2</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>43.4</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>39.1</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>35.2</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>34</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13">
         <v>37.1</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>39</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>37.2</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13">
         <v>37.7</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13">
         <v>39</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13">
         <v>34.3</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13">
         <v>31.9</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13">
         <v>31.9</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13">
         <v>33</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13">
         <v>35</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13">
         <v>36.8</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13">
         <v>38.4</v>
       </c>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr"/>
-      <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr"/>
-      <c r="BV13" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>